--- a/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #4 - 04 SMaSH Fuggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E492B-E368-428B-A998-7D47ED4AFB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC7F06-BF29-478B-A479-94C44113A2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -497,11 +497,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B7" s="3">
         <f>A7-$A$6</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">

--- a/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #4 - 04 SMaSH Fuggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC7F06-BF29-478B-A479-94C44113A2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975AD0BD-DD23-4408-B893-20FA4C6A930C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bottling day</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>04 SMaSH Fuggle</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a puff. Poured clear with a little foam. Moderate carbonation. Light haze due to yeast not fully deposited. Light body, crisp and hoppy and a mild grassy taste and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Moderate carbonation. Light haze due to yeast not fully deposited. Light body, crisp and hoppy and a mild grassy/vegetal taste and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,11 +108,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -124,22 +144,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +457,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,18 +470,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -458,65 +490,85 @@
       <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>44128</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>44139</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <f>A7-$A$6</f>
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44155</v>
+      </c>
+      <c r="B8" s="9">
+        <f>A8-$A$6</f>
+        <v>27</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44164</v>
+      </c>
+      <c r="B9" s="9">
+        <f>A9-$A$6</f>
+        <v>36</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>

--- a/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #4 - 04 SMaSH Fuggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975AD0BD-DD23-4408-B893-20FA4C6A930C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC82615-A715-439C-AEB1-6338CB3F895D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Bottling day</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +570,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44169</v>
+      </c>
+      <c r="B10" s="9">
+        <f>A10-$A$6</f>
+        <v>41</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>

--- a/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_4/Batch_4_04_SMaSH_Fuggle_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #4 - 04 SMaSH Fuggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC82615-A715-439C-AEB1-6338CB3F895D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2783B1E-2145-485A-BE87-ABF8BFB15582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Bottling day</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Moderate carbonation. Light haze due to yeast not fully deposited. Light body, crisp and hoppy and a mild grassy/vegetal taste and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a very small puff. Poured clear with a little foam. Light carbonation. Very light haze due to yeast not fully deposited. Light body, crisp and hoppy and a mild grassy/vegetal taste and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +588,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44170</v>
+      </c>
+      <c r="B11" s="9">
+        <f>A11-$A$6</f>
+        <v>42</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
